--- a/PCB/BOM_PCB_Temperature Module.xlsx
+++ b/PCB/BOM_PCB_Temperature Module.xlsx
@@ -3,14 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53D5C55-3CB2-4835-8B1A-F14AF22D9446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D16E2-6542-435D-97B0-1785BB3D6472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Board1_Temperature Module_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOM_Board1_Temperature Module_2'!$C$1:$E$23</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -293,7 +309,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -301,12 +317,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,9 +678,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -660,543 +697,613 @@
     <col min="7" max="7" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H2">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H4">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H5">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H6">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="H7">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="H8">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H9">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="H10">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="H11">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="H12">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="H13">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="H14">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="H15">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="H16">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="H17">
+        <v>1.5649999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="H18">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="H19">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="H21">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="H22">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
+      </c>
+      <c r="H24">
+        <f>SUM(H2:H23)</f>
+        <v>39.015000000000001</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="landscape" horizontalDpi="2400" verticalDpi="2400" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>1</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>